--- a/Data/raw_data/Dwelling_Lifetime/lifetime_raw_data_new.xlsx
+++ b/Data/raw_data/Dwelling_Lifetime/lifetime_raw_data_new.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solveig\NTNU\Industrial_Ecology\TEP4290\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/Python/TEP4290_project/data/raw_data/Dwelling_Lifetime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F83CBB99-6CDA-401E-B24F-5A2C2CFB29A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{F83CBB99-6CDA-401E-B24F-5A2C2CFB29A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9770D9C7-9AFC-44C9-82DA-A66564980067}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,10 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,8 +534,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -900,11 +910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I295" sqref="I295"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection sqref="A1:C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
